--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69760.98361713963</v>
+        <v>-78937.2204717061</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33910109.85925107</v>
+        <v>33654759.71765644</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13831807.40168967</v>
+        <v>12802115.96047481</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2397579.614781511</v>
+        <v>2929100.880048944</v>
       </c>
     </row>
     <row r="11">
@@ -1375,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3.262548922260276</v>
+        <v>399.2805564346983</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>49.60563018141206</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U12" t="n">
-        <v>3.262548922260276</v>
+        <v>174.5263742585036</v>
       </c>
       <c r="V12" t="n">
-        <v>3.262548922260276</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W12" t="n">
-        <v>3.262548922260276</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X12" t="n">
-        <v>2.873653090726851</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="13">
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.262548922260276</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>3.262548922260276</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>3.262548922260276</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>157.8788717831654</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D14" t="n">
-        <v>2.873653090726851</v>
+        <v>397.1502321349992</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>34.44698820166499</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>3.262548922260276</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T15" t="n">
-        <v>3.262548922260276</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>174.5263742585036</v>
       </c>
       <c r="V15" t="n">
-        <v>3.262548922260276</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W15" t="n">
-        <v>2.873653090726851</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="16">
@@ -1767,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>3.262548922260276</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>3.262548922260276</v>
+        <v>125.0147118240663</v>
       </c>
       <c r="X16" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.873653090726851</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>123.0113315086437</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3128863119508</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>272.6207125031721</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>46.67518885250233</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,10 +2019,10 @@
         <v>163.3388892342509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T19" t="n">
         <v>240.8720855447433</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>55.24844023042839</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>156.2922612004062</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T20" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>287.5716684427469</v>
       </c>
     </row>
     <row r="21">
@@ -2244,10 +2244,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>127.5494699047414</v>
+        <v>73.04579089127196</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D23" t="n">
-        <v>279.5106359793571</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>396.054118850051</v>
+        <v>268.6747485063155</v>
       </c>
       <c r="H23" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U23" t="n">
         <v>256.5237009191198</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.8872628613766</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T25" t="n">
-        <v>203.9006808324361</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U25" t="n">
         <v>275.6161358490523</v>
@@ -2538,13 +2538,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>333.9527060771446</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>121.1569563125157</v>
       </c>
       <c r="H26" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U26" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2724,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>133.1343044024005</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>166.9886018177609</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>52.09196186290266</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2857,10 +2857,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>406.3798203349551</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2955,16 +2955,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>32.52106647963826</v>
       </c>
       <c r="G31" t="n">
-        <v>66.31244946656966</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>188.2260173735678</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>329.8062372308943</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>69.2330237552284</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>236.5789795615667</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3271,16 +3271,16 @@
         <v>418.1856318563248</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>407.8481493585725</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>396.054118850051</v>
+        <v>117.7605938922496</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U37" t="n">
-        <v>236.5789795615672</v>
+        <v>170.6468775146851</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="C38" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="E38" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="F38" t="n">
-        <v>390.4694175453243</v>
+        <v>315.8238678379125</v>
       </c>
       <c r="G38" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.769388947267996</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>213.7942436487394</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>355.17234330701</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>349.315293343841</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3900,16 +3900,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>181.768414496463</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>120.1762156446658</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>282.6571178992972</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>246.5143722645488</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4070,10 +4070,10 @@
         <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>83.52738940623971</v>
+        <v>83.81976830925504</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306971</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.17482029426311</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T45" t="n">
-        <v>124.8306395731037</v>
+        <v>126.0091317304331</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5071388043578</v>
+        <v>174.5263742585036</v>
       </c>
       <c r="V45" t="n">
         <v>197.1263427586206</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>20.7415424114344</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>42.95814924713178</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.14751579941802</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="C11" t="n">
-        <v>10.14751579941802</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="D11" t="n">
-        <v>6.852011837538956</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="E11" t="n">
-        <v>3.556507875659889</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2610039137808221</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2610039137808221</v>
+        <v>83.79828774524211</v>
       </c>
       <c r="J11" t="n">
-        <v>1.160310701713749</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K11" t="n">
-        <v>2.508138455589629</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L11" t="n">
-        <v>4.180237967355345</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M11" t="n">
-        <v>6.040770853278583</v>
+        <v>801.8833353847203</v>
       </c>
       <c r="N11" t="n">
-        <v>7.931409106423309</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O11" t="n">
-        <v>9.71668519667894</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P11" t="n">
-        <v>11.24037703589</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q11" t="n">
-        <v>12.38460615143387</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R11" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S11" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T11" t="n">
-        <v>13.05019568904111</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U11" t="n">
-        <v>13.05019568904111</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="V11" t="n">
-        <v>13.05019568904111</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="W11" t="n">
-        <v>10.14751579941802</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="X11" t="n">
-        <v>10.14751579941802</v>
+        <v>836.8232094219902</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.14751579941802</v>
+        <v>836.8232094219902</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2610039137808221</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2610039137808221</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2610039137808221</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2610039137808221</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2610039137808221</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2610039137808221</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I12" t="n">
-        <v>1.072177809113711</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J12" t="n">
-        <v>1.607798771138296</v>
+        <v>212.0078241733789</v>
       </c>
       <c r="K12" t="n">
-        <v>2.523260307689948</v>
+        <v>325.7458430188112</v>
       </c>
       <c r="L12" t="n">
-        <v>3.754211318554211</v>
+        <v>478.6806454998153</v>
       </c>
       <c r="M12" t="n">
-        <v>5.190673088024536</v>
+        <v>657.1483465265319</v>
       </c>
       <c r="N12" t="n">
-        <v>6.665153726207343</v>
+        <v>840.3395565522072</v>
       </c>
       <c r="O12" t="n">
-        <v>8.014015446969966</v>
+        <v>1007.923724417817</v>
       </c>
       <c r="P12" t="n">
-        <v>9.096595895631884</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.820272256003433</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R12" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S12" t="n">
-        <v>13.05019568904111</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T12" t="n">
-        <v>13.05019568904111</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U12" t="n">
-        <v>9.754691727162038</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V12" t="n">
-        <v>6.459187765282971</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W12" t="n">
-        <v>3.163683803403904</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2610039137808221</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.2610039137808221</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.852011837538956</v>
+        <v>545.7979011344898</v>
       </c>
       <c r="C13" t="n">
-        <v>6.852011837538956</v>
+        <v>545.7979011344898</v>
       </c>
       <c r="D13" t="n">
-        <v>6.852011837538956</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="E13" t="n">
-        <v>3.556507875659889</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J13" t="n">
-        <v>3.490927346818495</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K13" t="n">
-        <v>6.720850779856169</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L13" t="n">
-        <v>7.427480221213296</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M13" t="n">
-        <v>8.172521890365854</v>
+        <v>685.5055750760537</v>
       </c>
       <c r="N13" t="n">
-        <v>8.899848133875976</v>
+        <v>775.8694436693075</v>
       </c>
       <c r="O13" t="n">
-        <v>9.571651640921385</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P13" t="n">
-        <v>10.14649559884087</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05019568904111</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R13" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S13" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T13" t="n">
-        <v>13.05019568904111</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="U13" t="n">
-        <v>13.05019568904111</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="V13" t="n">
-        <v>13.05019568904111</v>
+        <v>1142.481882381848</v>
       </c>
       <c r="W13" t="n">
-        <v>10.14751579941802</v>
+        <v>1142.481882381848</v>
       </c>
       <c r="X13" t="n">
-        <v>10.14751579941802</v>
+        <v>897.0901277152602</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.14751579941802</v>
+        <v>737.616519853477</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.163683803403904</v>
+        <v>1257.081095842824</v>
       </c>
       <c r="C14" t="n">
-        <v>3.163683803403904</v>
+        <v>834.6713666950213</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2610039137808221</v>
+        <v>433.509516053608</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2610039137808221</v>
+        <v>433.509516053608</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2610039137808221</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2610039137808221</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J14" t="n">
-        <v>1.160310701713749</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K14" t="n">
-        <v>2.508138455589629</v>
+        <v>362.9849282099027</v>
       </c>
       <c r="L14" t="n">
-        <v>4.180237967355347</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M14" t="n">
-        <v>6.040770853278586</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N14" t="n">
-        <v>7.931409106423309</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O14" t="n">
-        <v>9.71668519667894</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P14" t="n">
-        <v>11.24037703589</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q14" t="n">
-        <v>12.38460615143387</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R14" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S14" t="n">
-        <v>13.05019568904111</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T14" t="n">
-        <v>13.05019568904111</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="U14" t="n">
-        <v>13.05019568904111</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="V14" t="n">
-        <v>13.05019568904111</v>
+        <v>1257.081095842824</v>
       </c>
       <c r="W14" t="n">
-        <v>13.05019568904111</v>
+        <v>1257.081095842824</v>
       </c>
       <c r="X14" t="n">
-        <v>9.754691727162038</v>
+        <v>1257.081095842824</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.459187765282971</v>
+        <v>1257.081095842824</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2610039137808221</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2610039137808221</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2610039137808221</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2610039137808221</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2610039137808221</v>
+        <v>152.9162207615565</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2610039137808221</v>
+        <v>68.24978812594537</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4561956203818615</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9918165824064463</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K15" t="n">
-        <v>1.907278118958098</v>
+        <v>605.2485493631989</v>
       </c>
       <c r="L15" t="n">
-        <v>3.13822912982236</v>
+        <v>758.183351844203</v>
       </c>
       <c r="M15" t="n">
-        <v>6.368152562860034</v>
+        <v>936.6510528709194</v>
       </c>
       <c r="N15" t="n">
-        <v>7.84263320104284</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O15" t="n">
-        <v>9.191494921805463</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P15" t="n">
-        <v>11.97452776196328</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.69820412233482</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R15" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S15" t="n">
-        <v>9.754691727162038</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T15" t="n">
-        <v>6.459187765282971</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U15" t="n">
-        <v>6.459187765282971</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V15" t="n">
-        <v>3.163683803403904</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2610039137808221</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2610039137808221</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.2610039137808221</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2610039137808221</v>
+        <v>883.3483896555588</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2610039137808221</v>
+        <v>710.7866781387837</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2610039137808221</v>
+        <v>544.9086853403064</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2610039137808221</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2610039137808221</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2610039137808221</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5970352923692026</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K16" t="n">
-        <v>3.826958725406876</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L16" t="n">
-        <v>4.533588166764003</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M16" t="n">
-        <v>5.278629835916561</v>
+        <v>685.5055750760537</v>
       </c>
       <c r="N16" t="n">
-        <v>6.005956079426682</v>
+        <v>775.8694436693075</v>
       </c>
       <c r="O16" t="n">
-        <v>6.677759586472091</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P16" t="n">
-        <v>9.907683019509763</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05019568904111</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R16" t="n">
-        <v>13.05019568904111</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S16" t="n">
-        <v>13.05019568904111</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T16" t="n">
-        <v>13.05019568904111</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U16" t="n">
-        <v>13.05019568904111</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="V16" t="n">
-        <v>9.754691727162038</v>
+        <v>1237.045547032427</v>
       </c>
       <c r="W16" t="n">
-        <v>6.459187765282971</v>
+        <v>1110.768060341451</v>
       </c>
       <c r="X16" t="n">
-        <v>3.163683803403904</v>
+        <v>1110.768060341451</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2610039137808221</v>
+        <v>883.3483896555588</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>440.4584857152968</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="C17" t="n">
-        <v>440.4584857152968</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="D17" t="n">
-        <v>440.4584857152968</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="E17" t="n">
-        <v>440.4584857152968</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="F17" t="n">
-        <v>440.4584857152968</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="G17" t="n">
         <v>308.8293076224172</v>
@@ -5512,19 +5512,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I17" t="n">
-        <v>83.79828774524252</v>
+        <v>83.79828774524211</v>
       </c>
       <c r="J17" t="n">
-        <v>195.5292216073331</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K17" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L17" t="n">
-        <v>570.728539696869</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M17" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847203</v>
       </c>
       <c r="N17" t="n">
         <v>1036.7784573317</v>
@@ -5536,31 +5536,31 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q17" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R17" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S17" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T17" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="U17" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="V17" t="n">
-        <v>1672.742527425299</v>
+        <v>1257.081095842824</v>
       </c>
       <c r="W17" t="n">
-        <v>1267.887072836333</v>
+        <v>852.2256412538577</v>
       </c>
       <c r="X17" t="n">
-        <v>848.7446094156434</v>
+        <v>433.0831778331684</v>
       </c>
       <c r="Y17" t="n">
-        <v>440.4584857152968</v>
+        <v>433.0831778331684</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>531.9672238352457</v>
+        <v>531.9672238352459</v>
       </c>
       <c r="C18" t="n">
-        <v>425.510762671888</v>
+        <v>425.5107626718882</v>
       </c>
       <c r="D18" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184415</v>
       </c>
       <c r="E18" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453952</v>
       </c>
       <c r="F18" t="n">
-        <v>152.9162207615566</v>
+        <v>152.9162207615568</v>
       </c>
       <c r="G18" t="n">
-        <v>68.24978812594554</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H18" t="n">
         <v>33.45485054850599</v>
@@ -5624,7 +5624,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T18" t="n">
-        <v>1495.353879029496</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U18" t="n">
         <v>1319.064612101715</v>
@@ -5633,13 +5633,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W18" t="n">
-        <v>934.6243398969082</v>
+        <v>934.6243398969084</v>
       </c>
       <c r="X18" t="n">
-        <v>779.7569041357881</v>
+        <v>779.7569041357883</v>
       </c>
       <c r="Y18" t="n">
-        <v>653.2711249150088</v>
+        <v>653.2711249150091</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>592.0553407468744</v>
+        <v>746.1152861162967</v>
       </c>
       <c r="C19" t="n">
-        <v>592.0553407468744</v>
+        <v>746.1152861162967</v>
       </c>
       <c r="D19" t="n">
-        <v>544.9086853403064</v>
+        <v>580.2372933178194</v>
       </c>
       <c r="E19" t="n">
-        <v>375.1506815910436</v>
+        <v>580.2372933178194</v>
       </c>
       <c r="F19" t="n">
-        <v>198.4436275527998</v>
+        <v>403.5302392795757</v>
       </c>
       <c r="G19" t="n">
-        <v>33.45485054850599</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="H19" t="n">
-        <v>33.45485054850599</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I19" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="J19" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K19" t="n">
-        <v>505.1482476164479</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L19" t="n">
-        <v>592.940721149037</v>
+        <v>304.3051044129577</v>
       </c>
       <c r="M19" t="n">
-        <v>861.7096435212254</v>
+        <v>718.3088799507193</v>
       </c>
       <c r="N19" t="n">
-        <v>952.0735121144792</v>
+        <v>1132.312655488481</v>
       </c>
       <c r="O19" t="n">
-        <v>1035.539170576305</v>
+        <v>1546.316431026242</v>
       </c>
       <c r="P19" t="n">
-        <v>1449.542946114066</v>
+        <v>1617.735720978399</v>
       </c>
       <c r="Q19" t="n">
         <v>1667.182735391305</v>
@@ -5700,25 +5700,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S19" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T19" t="n">
-        <v>1429.437390511417</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U19" t="n">
-        <v>1151.037253290152</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="V19" t="n">
-        <v>864.0817451605828</v>
+        <v>993.7404101185448</v>
       </c>
       <c r="W19" t="n">
-        <v>592.0553407468744</v>
+        <v>993.7404101185448</v>
       </c>
       <c r="X19" t="n">
-        <v>592.0553407468744</v>
+        <v>993.7404101185448</v>
       </c>
       <c r="Y19" t="n">
-        <v>592.0553407468744</v>
+        <v>937.9339048352838</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1458.555008901416</v>
+        <v>855.9192452014109</v>
       </c>
       <c r="C20" t="n">
-        <v>1300.684037991914</v>
+        <v>855.9192452014109</v>
       </c>
       <c r="D20" t="n">
-        <v>878.2743088441116</v>
+        <v>855.9192452014109</v>
       </c>
       <c r="E20" t="n">
-        <v>455.8645796963088</v>
+        <v>855.9192452014109</v>
       </c>
       <c r="F20" t="n">
-        <v>33.45485054850598</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G20" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H20" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I20" t="n">
-        <v>83.79828774524185</v>
+        <v>83.79828774524228</v>
       </c>
       <c r="J20" t="n">
-        <v>195.5292216073325</v>
+        <v>195.5292216073328</v>
       </c>
       <c r="K20" t="n">
-        <v>362.9849282099028</v>
+        <v>362.9849282099031</v>
       </c>
       <c r="L20" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968689</v>
       </c>
       <c r="M20" t="n">
-        <v>801.88333538472</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N20" t="n">
         <v>1036.7784573317</v>
@@ -5779,25 +5779,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S20" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T20" t="n">
-        <v>1458.555008901416</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U20" t="n">
-        <v>1458.555008901416</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="V20" t="n">
-        <v>1458.555008901416</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="W20" t="n">
-        <v>1458.555008901416</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="X20" t="n">
-        <v>1458.555008901416</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="Y20" t="n">
-        <v>1458.555008901416</v>
+        <v>855.9192452014109</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C21" t="n">
-        <v>425.5107626718881</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D21" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E21" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F21" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G21" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594554</v>
       </c>
       <c r="H21" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I21" t="n">
-        <v>57.70569792707141</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J21" t="n">
-        <v>124.2518767018075</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K21" t="n">
-        <v>538.2556522395689</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L21" t="n">
-        <v>691.190454720573</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M21" t="n">
-        <v>869.6581557472896</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N21" t="n">
-        <v>1052.849365772965</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O21" t="n">
-        <v>1220.433533638575</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P21" t="n">
-        <v>1354.934602831948</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q21" t="n">
-        <v>1629.01068086594</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R21" t="n">
         <v>1672.742527425299</v>
@@ -5873,10 +5873,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X21" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y21" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>547.7123931078187</v>
+        <v>883.3483896555588</v>
       </c>
       <c r="C22" t="n">
-        <v>375.1506815910436</v>
+        <v>710.7866781387837</v>
       </c>
       <c r="D22" t="n">
-        <v>375.1506815910436</v>
+        <v>544.9086853403064</v>
       </c>
       <c r="E22" t="n">
         <v>375.1506815910436</v>
@@ -5901,34 +5901,34 @@
         <v>198.4436275527998</v>
       </c>
       <c r="G22" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H22" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I22" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J22" t="n">
-        <v>75.20378455015357</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K22" t="n">
-        <v>418.568562451758</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L22" t="n">
-        <v>832.5723379895194</v>
+        <v>231.6025814132115</v>
       </c>
       <c r="M22" t="n">
-        <v>925.1371919165362</v>
+        <v>645.606356950973</v>
       </c>
       <c r="N22" t="n">
-        <v>1015.50106050979</v>
+        <v>1059.610132488735</v>
       </c>
       <c r="O22" t="n">
-        <v>1098.966718971615</v>
+        <v>1473.613908026496</v>
       </c>
       <c r="P22" t="n">
-        <v>1449.542946114066</v>
+        <v>1617.735720978399</v>
       </c>
       <c r="Q22" t="n">
         <v>1667.182735391305</v>
@@ -5940,22 +5940,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T22" t="n">
-        <v>1543.904679036671</v>
+        <v>1598.958900262398</v>
       </c>
       <c r="U22" t="n">
-        <v>1543.904679036671</v>
+        <v>1320.558763041133</v>
       </c>
       <c r="V22" t="n">
-        <v>1256.949170907102</v>
+        <v>1320.558763041133</v>
       </c>
       <c r="W22" t="n">
-        <v>984.9227664933933</v>
+        <v>1320.558763041133</v>
       </c>
       <c r="X22" t="n">
-        <v>739.5310118268058</v>
+        <v>1075.167008374546</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.5310118268058</v>
+        <v>1075.167008374546</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1413.627678012047</v>
+        <v>727.2532145511731</v>
       </c>
       <c r="C23" t="n">
-        <v>991.2179488642437</v>
+        <v>304.8434854033702</v>
       </c>
       <c r="D23" t="n">
-        <v>708.8839731275193</v>
+        <v>304.8434854033702</v>
       </c>
       <c r="E23" t="n">
-        <v>708.8839731275193</v>
+        <v>304.8434854033702</v>
       </c>
       <c r="F23" t="n">
-        <v>708.8839731275193</v>
+        <v>304.8434854033702</v>
       </c>
       <c r="G23" t="n">
-        <v>308.8293076224172</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H23" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I23" t="n">
-        <v>83.79828774524206</v>
+        <v>83.7982877452425</v>
       </c>
       <c r="J23" t="n">
-        <v>195.5292216073326</v>
+        <v>195.529221607333</v>
       </c>
       <c r="K23" t="n">
-        <v>362.9849282099029</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L23" t="n">
-        <v>570.7285396968686</v>
+        <v>570.728539696869</v>
       </c>
       <c r="M23" t="n">
-        <v>801.8833353847201</v>
+        <v>801.8833353847206</v>
       </c>
       <c r="N23" t="n">
         <v>1036.7784573317</v>
@@ -6016,25 +6016,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S23" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T23" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U23" t="n">
-        <v>1413.627678012047</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="V23" t="n">
-        <v>1413.627678012047</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="W23" t="n">
-        <v>1413.627678012047</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="X23" t="n">
-        <v>1413.627678012047</v>
+        <v>727.2532145511731</v>
       </c>
       <c r="Y23" t="n">
-        <v>1413.627678012047</v>
+        <v>727.2532145511731</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H24" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I24" t="n">
         <v>83.76937108752902</v>
       </c>
       <c r="J24" t="n">
-        <v>150.3155498622651</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K24" t="n">
-        <v>264.0535687076974</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L24" t="n">
-        <v>416.9883711887014</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M24" t="n">
-        <v>595.456072215418</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N24" t="n">
-        <v>778.6472822410933</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O24" t="n">
-        <v>1192.651057778855</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P24" t="n">
-        <v>1421.927499955578</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q24" t="n">
         <v>1511.8379027716</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>210.1619045867498</v>
+        <v>523.5216541782927</v>
       </c>
       <c r="C25" t="n">
-        <v>210.1619045867498</v>
+        <v>523.5216541782927</v>
       </c>
       <c r="D25" t="n">
-        <v>210.1619045867498</v>
+        <v>523.5216541782927</v>
       </c>
       <c r="E25" t="n">
-        <v>210.1619045867498</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="F25" t="n">
-        <v>33.45485054850598</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G25" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H25" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I25" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J25" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K25" t="n">
-        <v>230.3897930453123</v>
+        <v>418.568562451758</v>
       </c>
       <c r="L25" t="n">
-        <v>318.1822665779013</v>
+        <v>832.5723379895196</v>
       </c>
       <c r="M25" t="n">
-        <v>732.1860421156628</v>
+        <v>925.1371919165364</v>
       </c>
       <c r="N25" t="n">
-        <v>1146.189817653424</v>
+        <v>1015.50106050979</v>
       </c>
       <c r="O25" t="n">
-        <v>1229.65547611525</v>
+        <v>1098.966718971616</v>
       </c>
       <c r="P25" t="n">
         <v>1449.542946114066</v>
@@ -6174,25 +6174,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S25" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T25" t="n">
-        <v>1466.782243756172</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U25" t="n">
-        <v>1188.382106534907</v>
+        <v>1002.295781026849</v>
       </c>
       <c r="V25" t="n">
-        <v>901.426598405337</v>
+        <v>715.3402728972799</v>
       </c>
       <c r="W25" t="n">
-        <v>629.4001939916286</v>
+        <v>715.3402728972799</v>
       </c>
       <c r="X25" t="n">
-        <v>629.4001939916286</v>
+        <v>715.3402728972799</v>
       </c>
       <c r="Y25" t="n">
-        <v>401.9805233057369</v>
+        <v>715.3402728972799</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>646.1552733569067</v>
+        <v>1000.655072796148</v>
       </c>
       <c r="C26" t="n">
-        <v>308.8293076224172</v>
+        <v>1000.655072796148</v>
       </c>
       <c r="D26" t="n">
-        <v>308.8293076224172</v>
+        <v>1000.655072796148</v>
       </c>
       <c r="E26" t="n">
-        <v>308.8293076224172</v>
+        <v>578.2453436483449</v>
       </c>
       <c r="F26" t="n">
-        <v>308.8293076224172</v>
+        <v>155.8356145005421</v>
       </c>
       <c r="G26" t="n">
-        <v>308.8293076224172</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H26" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I26" t="n">
-        <v>83.79828774524233</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J26" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K26" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099026</v>
       </c>
       <c r="L26" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M26" t="n">
-        <v>801.8833353847205</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N26" t="n">
         <v>1036.7784573317</v>
@@ -6253,25 +6253,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S26" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T26" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U26" t="n">
-        <v>1413.627678012047</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="V26" t="n">
-        <v>1051.010727945873</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="W26" t="n">
-        <v>646.1552733569067</v>
+        <v>1000.655072796148</v>
       </c>
       <c r="X26" t="n">
-        <v>646.1552733569067</v>
+        <v>1000.655072796148</v>
       </c>
       <c r="Y26" t="n">
-        <v>646.1552733569067</v>
+        <v>1000.655072796148</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>531.9672238352457</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C27" t="n">
-        <v>425.510762671888</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D27" t="n">
-        <v>330.4204738184412</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E27" t="n">
-        <v>236.3000591453949</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F27" t="n">
-        <v>152.9162207615565</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G27" t="n">
         <v>68.24978812594551</v>
       </c>
       <c r="H27" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I27" t="n">
         <v>83.76937108752902</v>
@@ -6308,22 +6308,22 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K27" t="n">
-        <v>588.6118936739097</v>
+        <v>605.2485493631987</v>
       </c>
       <c r="L27" t="n">
-        <v>741.5466961549138</v>
+        <v>758.1833518442028</v>
       </c>
       <c r="M27" t="n">
-        <v>920.0143971816303</v>
+        <v>936.6510528709192</v>
       </c>
       <c r="N27" t="n">
-        <v>1103.205607207306</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O27" t="n">
-        <v>1270.789775072916</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P27" t="n">
-        <v>1405.290844266289</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q27" t="n">
         <v>1511.8379027716</v>
@@ -6347,10 +6347,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X27" t="n">
-        <v>779.7569041357881</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y27" t="n">
-        <v>653.2711249150088</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="28">
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>552.4816198527876</v>
+        <v>715.3402728972796</v>
       </c>
       <c r="C28" t="n">
-        <v>379.9199083360126</v>
+        <v>542.7785613805046</v>
       </c>
       <c r="D28" t="n">
-        <v>379.9199083360126</v>
+        <v>542.7785613805046</v>
       </c>
       <c r="E28" t="n">
-        <v>210.1619045867498</v>
+        <v>373.0205576312418</v>
       </c>
       <c r="F28" t="n">
-        <v>33.45485054850599</v>
+        <v>373.0205576312418</v>
       </c>
       <c r="G28" t="n">
-        <v>33.45485054850599</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="H28" t="n">
-        <v>33.45485054850599</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I28" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J28" t="n">
-        <v>75.20378455015359</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K28" t="n">
-        <v>418.568562451758</v>
+        <v>355.1410140564469</v>
       </c>
       <c r="L28" t="n">
-        <v>832.5723379895196</v>
+        <v>769.1447895942084</v>
       </c>
       <c r="M28" t="n">
-        <v>925.1371919165364</v>
+        <v>861.7096435212252</v>
       </c>
       <c r="N28" t="n">
-        <v>1015.50106050979</v>
+        <v>952.0735121144789</v>
       </c>
       <c r="O28" t="n">
-        <v>1098.966718971616</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P28" t="n">
         <v>1449.542946114066</v>
@@ -6411,25 +6411,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S28" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T28" t="n">
-        <v>1672.742527425299</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U28" t="n">
-        <v>1672.742527425299</v>
+        <v>1002.295781026849</v>
       </c>
       <c r="V28" t="n">
-        <v>1385.78701929573</v>
+        <v>715.3402728972796</v>
       </c>
       <c r="W28" t="n">
-        <v>1217.111663924254</v>
+        <v>715.3402728972796</v>
       </c>
       <c r="X28" t="n">
-        <v>971.7199092576666</v>
+        <v>715.3402728972796</v>
       </c>
       <c r="Y28" t="n">
-        <v>744.3002385717748</v>
+        <v>715.3402728972796</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>433.509516053608</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="C29" t="n">
-        <v>433.509516053608</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D29" t="n">
-        <v>433.509516053608</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E29" t="n">
-        <v>433.509516053608</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F29" t="n">
-        <v>433.509516053608</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G29" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H29" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I29" t="n">
-        <v>83.79828774524185</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J29" t="n">
         <v>195.5292216073324</v>
       </c>
       <c r="K29" t="n">
-        <v>362.9849282099026</v>
+        <v>362.9849282099027</v>
       </c>
       <c r="L29" t="n">
-        <v>570.7285396968683</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M29" t="n">
-        <v>801.8833353847199</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N29" t="n">
         <v>1036.7784573317</v>
@@ -6490,25 +6490,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S29" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T29" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="U29" t="n">
-        <v>1620.124384129438</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="V29" t="n">
-        <v>1257.507434063264</v>
+        <v>1257.081095842824</v>
       </c>
       <c r="W29" t="n">
-        <v>852.6519794742974</v>
+        <v>852.2256412538577</v>
       </c>
       <c r="X29" t="n">
-        <v>433.509516053608</v>
+        <v>441.7409742488526</v>
       </c>
       <c r="Y29" t="n">
-        <v>433.509516053608</v>
+        <v>33.45485054850599</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H30" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I30" t="n">
-        <v>83.76937108752901</v>
+        <v>57.70569792707142</v>
       </c>
       <c r="J30" t="n">
-        <v>474.8738748284774</v>
+        <v>448.8102016680198</v>
       </c>
       <c r="K30" t="n">
-        <v>588.6118936739097</v>
+        <v>562.5482205134522</v>
       </c>
       <c r="L30" t="n">
-        <v>741.5466961549138</v>
+        <v>715.4830229944563</v>
       </c>
       <c r="M30" t="n">
-        <v>920.0143971816303</v>
+        <v>893.9507240211728</v>
       </c>
       <c r="N30" t="n">
-        <v>1103.205607207306</v>
+        <v>1077.141934046848</v>
       </c>
       <c r="O30" t="n">
-        <v>1270.789775072916</v>
+        <v>1244.726101912458</v>
       </c>
       <c r="P30" t="n">
-        <v>1405.290844266289</v>
+        <v>1379.227171105832</v>
       </c>
       <c r="Q30" t="n">
-        <v>1511.8379027716</v>
+        <v>1629.01068086594</v>
       </c>
       <c r="R30" t="n">
         <v>1672.742527425299</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>442.756838002998</v>
+        <v>574.5021207136658</v>
       </c>
       <c r="C31" t="n">
-        <v>270.1951264862229</v>
+        <v>401.9404091968908</v>
       </c>
       <c r="D31" t="n">
-        <v>270.1951264862229</v>
+        <v>236.0624163984134</v>
       </c>
       <c r="E31" t="n">
-        <v>100.4371227369602</v>
+        <v>66.30441264915069</v>
       </c>
       <c r="F31" t="n">
-        <v>100.4371227369602</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G31" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H31" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I31" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J31" t="n">
-        <v>75.20378455015357</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K31" t="n">
-        <v>418.568562451758</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L31" t="n">
-        <v>506.3610359843471</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M31" t="n">
-        <v>861.7096435212253</v>
+        <v>1006.944496686799</v>
       </c>
       <c r="N31" t="n">
-        <v>952.0735121144789</v>
+        <v>1097.308365280052</v>
       </c>
       <c r="O31" t="n">
-        <v>1035.539170576305</v>
+        <v>1180.774023741878</v>
       </c>
       <c r="P31" t="n">
         <v>1449.542946114066</v>
@@ -6648,25 +6648,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S31" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T31" t="n">
-        <v>1672.742527425299</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U31" t="n">
-        <v>1394.342390204034</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="V31" t="n">
-        <v>1107.386882074464</v>
+        <v>993.7404101185448</v>
       </c>
       <c r="W31" t="n">
-        <v>1107.386882074464</v>
+        <v>993.7404101185448</v>
       </c>
       <c r="X31" t="n">
-        <v>861.9951274078769</v>
+        <v>993.7404101185448</v>
       </c>
       <c r="Y31" t="n">
-        <v>634.5754567219851</v>
+        <v>766.320739432653</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>33.45485054850598</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="C32" t="n">
-        <v>33.45485054850598</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="D32" t="n">
-        <v>33.45485054850598</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="E32" t="n">
-        <v>33.45485054850598</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="F32" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G32" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H32" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I32" t="n">
-        <v>83.79828774524185</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J32" t="n">
         <v>195.5292216073324</v>
       </c>
       <c r="K32" t="n">
-        <v>362.9849282099026</v>
+        <v>362.9849282099027</v>
       </c>
       <c r="L32" t="n">
-        <v>570.7285396968683</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M32" t="n">
-        <v>801.8833353847199</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N32" t="n">
         <v>1036.7784573317</v>
@@ -6727,25 +6727,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S32" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T32" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="U32" t="n">
-        <v>1413.627678012047</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="V32" t="n">
-        <v>1051.010727945873</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="W32" t="n">
-        <v>1051.010727945873</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="X32" t="n">
-        <v>631.8682645251837</v>
+        <v>1286.560432544458</v>
       </c>
       <c r="Y32" t="n">
-        <v>223.5821408248371</v>
+        <v>878.2743088441118</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H33" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I33" t="n">
         <v>83.76937108752902</v>
       </c>
       <c r="J33" t="n">
-        <v>150.3155498622651</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K33" t="n">
-        <v>264.0535687076974</v>
+        <v>605.2485493631987</v>
       </c>
       <c r="L33" t="n">
-        <v>416.9883711887014</v>
+        <v>758.1833518442028</v>
       </c>
       <c r="M33" t="n">
-        <v>595.456072215418</v>
+        <v>936.6510528709192</v>
       </c>
       <c r="N33" t="n">
-        <v>778.6472822410933</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O33" t="n">
-        <v>946.2314501067034</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P33" t="n">
-        <v>1097.834127233838</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q33" t="n">
         <v>1511.8379027716</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>210.1619045867498</v>
+        <v>1088.435001382335</v>
       </c>
       <c r="C34" t="n">
-        <v>210.1619045867498</v>
+        <v>915.8732898655595</v>
       </c>
       <c r="D34" t="n">
-        <v>210.1619045867498</v>
+        <v>749.9952970670822</v>
       </c>
       <c r="E34" t="n">
-        <v>210.1619045867498</v>
+        <v>580.2372933178194</v>
       </c>
       <c r="F34" t="n">
-        <v>33.45485054850598</v>
+        <v>403.5302392795757</v>
       </c>
       <c r="G34" t="n">
-        <v>33.45485054850598</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="H34" t="n">
-        <v>33.45485054850598</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I34" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J34" t="n">
-        <v>75.20378455015357</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K34" t="n">
         <v>143.8101078806224</v>
       </c>
       <c r="L34" t="n">
-        <v>557.8138834183839</v>
+        <v>231.6025814132115</v>
       </c>
       <c r="M34" t="n">
-        <v>718.3088799507188</v>
+        <v>645.6063569509731</v>
       </c>
       <c r="N34" t="n">
-        <v>1132.31265548848</v>
+        <v>1059.610132488735</v>
       </c>
       <c r="O34" t="n">
-        <v>1546.316431026242</v>
+        <v>1473.613908026496</v>
       </c>
       <c r="P34" t="n">
-        <v>1617.735720978398</v>
+        <v>1545.033197978652</v>
       </c>
       <c r="Q34" t="n">
         <v>1667.182735391305</v>
@@ -6885,25 +6885,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S34" t="n">
-        <v>1672.742527425299</v>
+        <v>1602.810180197796</v>
       </c>
       <c r="T34" t="n">
-        <v>1672.742527425299</v>
+        <v>1602.810180197796</v>
       </c>
       <c r="U34" t="n">
-        <v>1433.773861201494</v>
+        <v>1602.810180197796</v>
       </c>
       <c r="V34" t="n">
-        <v>1146.818353071925</v>
+        <v>1315.854672068226</v>
       </c>
       <c r="W34" t="n">
-        <v>874.7919486582161</v>
+        <v>1315.854672068226</v>
       </c>
       <c r="X34" t="n">
-        <v>629.4001939916286</v>
+        <v>1315.854672068226</v>
       </c>
       <c r="Y34" t="n">
-        <v>401.9805233057369</v>
+        <v>1088.435001382335</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1267.887072836333</v>
+        <v>997.2244036847679</v>
       </c>
       <c r="C35" t="n">
-        <v>845.4773436885298</v>
+        <v>574.8146745369651</v>
       </c>
       <c r="D35" t="n">
-        <v>845.4773436885298</v>
+        <v>152.4049453891622</v>
       </c>
       <c r="E35" t="n">
-        <v>845.4773436885298</v>
+        <v>152.4049453891622</v>
       </c>
       <c r="F35" t="n">
-        <v>433.509516053608</v>
+        <v>152.4049453891622</v>
       </c>
       <c r="G35" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H35" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I35" t="n">
-        <v>83.79828774524205</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J35" t="n">
-        <v>195.5292216073326</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K35" t="n">
-        <v>362.9849282099029</v>
+        <v>362.9849282099028</v>
       </c>
       <c r="L35" t="n">
-        <v>570.7285396968686</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M35" t="n">
         <v>801.8833353847201</v>
@@ -6964,25 +6964,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S35" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T35" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U35" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="V35" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="W35" t="n">
-        <v>1267.887072836333</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="X35" t="n">
-        <v>1267.887072836333</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="Y35" t="n">
-        <v>1267.887072836333</v>
+        <v>997.2244036847679</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H36" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I36" t="n">
         <v>83.76937108752902</v>
@@ -7019,13 +7019,13 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K36" t="n">
-        <v>605.2485493631991</v>
+        <v>605.2485493631987</v>
       </c>
       <c r="L36" t="n">
-        <v>758.1833518442032</v>
+        <v>758.1833518442028</v>
       </c>
       <c r="M36" t="n">
-        <v>936.6510528709197</v>
+        <v>936.6510528709192</v>
       </c>
       <c r="N36" t="n">
         <v>1119.842262896595</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>210.1619045867498</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="C37" t="n">
-        <v>210.1619045867498</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="D37" t="n">
-        <v>210.1619045867498</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="E37" t="n">
-        <v>210.1619045867498</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="F37" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G37" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H37" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I37" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J37" t="n">
-        <v>75.20378455015359</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K37" t="n">
-        <v>143.8101078806224</v>
+        <v>359.9133944508745</v>
       </c>
       <c r="L37" t="n">
-        <v>557.8138834183841</v>
+        <v>447.7058679834636</v>
       </c>
       <c r="M37" t="n">
-        <v>971.8176589561456</v>
+        <v>861.7096435212252</v>
       </c>
       <c r="N37" t="n">
-        <v>1385.821434493907</v>
+        <v>952.0735121144789</v>
       </c>
       <c r="O37" t="n">
-        <v>1546.316431026242</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P37" t="n">
-        <v>1617.735720978399</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q37" t="n">
         <v>1667.182735391305</v>
@@ -7125,22 +7125,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T37" t="n">
-        <v>1672.742527425299</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="U37" t="n">
-        <v>1433.773861201494</v>
+        <v>1257.06680716325</v>
       </c>
       <c r="V37" t="n">
-        <v>1146.818353071925</v>
+        <v>970.1112990336808</v>
       </c>
       <c r="W37" t="n">
-        <v>874.7919486582161</v>
+        <v>698.0848946199724</v>
       </c>
       <c r="X37" t="n">
-        <v>629.4001939916286</v>
+        <v>452.6931399533848</v>
       </c>
       <c r="Y37" t="n">
-        <v>401.9805233057369</v>
+        <v>225.2734692674931</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1672.742527425299</v>
+        <v>1197.288316761195</v>
       </c>
       <c r="C38" t="n">
-        <v>1250.332798277496</v>
+        <v>1197.288316761195</v>
       </c>
       <c r="D38" t="n">
-        <v>1250.332798277496</v>
+        <v>774.8785876133924</v>
       </c>
       <c r="E38" t="n">
-        <v>827.9230691296932</v>
+        <v>352.4688584655894</v>
       </c>
       <c r="F38" t="n">
-        <v>433.509516053608</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G38" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H38" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I38" t="n">
-        <v>83.79828774524185</v>
+        <v>83.79828774524222</v>
       </c>
       <c r="J38" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073328</v>
       </c>
       <c r="K38" t="n">
-        <v>362.9849282099026</v>
+        <v>362.9849282099031</v>
       </c>
       <c r="L38" t="n">
-        <v>570.7285396968683</v>
+        <v>570.7285396968688</v>
       </c>
       <c r="M38" t="n">
-        <v>801.8833353847199</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N38" t="n">
         <v>1036.7784573317</v>
@@ -7192,34 +7192,34 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P38" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q38" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R38" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S38" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T38" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="U38" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="V38" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="W38" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="X38" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="Y38" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
     </row>
     <row r="39">
@@ -7235,43 +7235,43 @@
         <v>425.5107626718881</v>
       </c>
       <c r="D39" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E39" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F39" t="n">
         <v>152.9162207615567</v>
       </c>
       <c r="G39" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594553</v>
       </c>
       <c r="H39" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I39" t="n">
-        <v>83.76937108752901</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J39" t="n">
         <v>474.8738748284774</v>
       </c>
       <c r="K39" t="n">
-        <v>605.2485493631991</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L39" t="n">
-        <v>758.1833518442032</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M39" t="n">
-        <v>936.6510528709197</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N39" t="n">
-        <v>1119.842262896595</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O39" t="n">
-        <v>1287.426430762205</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P39" t="n">
-        <v>1421.927499955578</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q39" t="n">
         <v>1511.8379027716</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>721.1569752242629</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="C40" t="n">
-        <v>548.5952637074878</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D40" t="n">
-        <v>382.7172709090105</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E40" t="n">
-        <v>212.9592671597478</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F40" t="n">
-        <v>36.25221312150396</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G40" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H40" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I40" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J40" t="n">
-        <v>75.20378455015357</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K40" t="n">
-        <v>143.8101078806224</v>
+        <v>378.8579730919723</v>
       </c>
       <c r="L40" t="n">
-        <v>231.6025814132115</v>
+        <v>466.6504466245614</v>
       </c>
       <c r="M40" t="n">
-        <v>645.6063569509729</v>
+        <v>880.654222162323</v>
       </c>
       <c r="N40" t="n">
-        <v>1059.610132488735</v>
+        <v>1294.657997700085</v>
       </c>
       <c r="O40" t="n">
-        <v>1473.613908026496</v>
+        <v>1378.12365616191</v>
       </c>
       <c r="P40" t="n">
-        <v>1545.033197978652</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q40" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R40" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S40" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="T40" t="n">
-        <v>1672.742527425299</v>
+        <v>1308.047273698623</v>
       </c>
       <c r="U40" t="n">
-        <v>1672.742527425299</v>
+        <v>1029.647136477359</v>
       </c>
       <c r="V40" t="n">
-        <v>1385.787019295729</v>
+        <v>742.6916283477891</v>
       </c>
       <c r="W40" t="n">
-        <v>1385.787019295729</v>
+        <v>470.6652239340806</v>
       </c>
       <c r="X40" t="n">
-        <v>1140.395264629142</v>
+        <v>225.2734692674931</v>
       </c>
       <c r="Y40" t="n">
-        <v>912.97559394325</v>
+        <v>225.2734692674931</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>433.509516053608</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="C41" t="n">
-        <v>433.509516053608</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D41" t="n">
-        <v>433.509516053608</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E41" t="n">
-        <v>433.509516053608</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F41" t="n">
-        <v>433.509516053608</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G41" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H41" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I41" t="n">
-        <v>83.79828774524185</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J41" t="n">
         <v>195.5292216073324</v>
       </c>
       <c r="K41" t="n">
-        <v>362.9849282099026</v>
+        <v>362.9849282099025</v>
       </c>
       <c r="L41" t="n">
         <v>570.7285396968684</v>
       </c>
       <c r="M41" t="n">
-        <v>801.88333538472</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N41" t="n">
         <v>1036.7784573317</v>
@@ -7438,25 +7438,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S41" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T41" t="n">
-        <v>1619.698045908998</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U41" t="n">
-        <v>1619.698045908998</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="V41" t="n">
-        <v>1619.698045908998</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="W41" t="n">
-        <v>1619.698045908998</v>
+        <v>794.584704899197</v>
       </c>
       <c r="X41" t="n">
-        <v>1200.555582488308</v>
+        <v>441.7409742488526</v>
       </c>
       <c r="Y41" t="n">
-        <v>792.2694587879615</v>
+        <v>33.45485054850599</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H42" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I42" t="n">
         <v>83.76937108752902</v>
@@ -7493,22 +7493,22 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K42" t="n">
-        <v>605.2485493631991</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L42" t="n">
-        <v>758.1833518442032</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M42" t="n">
-        <v>936.6510528709197</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N42" t="n">
-        <v>1119.842262896595</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O42" t="n">
-        <v>1287.426430762205</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P42" t="n">
-        <v>1421.927499955578</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q42" t="n">
         <v>1511.8379027716</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>552.4816198527876</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="C43" t="n">
-        <v>379.9199083360126</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D43" t="n">
-        <v>379.9199083360126</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E43" t="n">
-        <v>210.1619045867498</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F43" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G43" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H43" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I43" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J43" t="n">
         <v>161.7834697148434</v>
@@ -7578,13 +7578,13 @@
         <v>592.940721149037</v>
       </c>
       <c r="M43" t="n">
-        <v>880.6542221623226</v>
+        <v>1006.944496686799</v>
       </c>
       <c r="N43" t="n">
-        <v>1294.657997700084</v>
+        <v>1097.308365280052</v>
       </c>
       <c r="O43" t="n">
-        <v>1378.12365616191</v>
+        <v>1180.774023741878</v>
       </c>
       <c r="P43" t="n">
         <v>1449.542946114066</v>
@@ -7599,22 +7599,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T43" t="n">
-        <v>1489.138068337963</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.138068337963</v>
+        <v>1151.037253290152</v>
       </c>
       <c r="V43" t="n">
-        <v>1489.138068337963</v>
+        <v>864.0817451605828</v>
       </c>
       <c r="W43" t="n">
-        <v>1217.111663924254</v>
+        <v>592.0553407468744</v>
       </c>
       <c r="X43" t="n">
-        <v>971.7199092576666</v>
+        <v>346.6635860802869</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.3002385717748</v>
+        <v>225.2734692674931</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>446.7092428694776</v>
+        <v>318.9670908508265</v>
       </c>
       <c r="C44" t="n">
-        <v>446.7092428694776</v>
+        <v>318.9670908508265</v>
       </c>
       <c r="D44" t="n">
-        <v>446.7092428694776</v>
+        <v>318.9670908508265</v>
       </c>
       <c r="E44" t="n">
-        <v>446.7092428694776</v>
+        <v>318.9670908508265</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694776</v>
+        <v>318.9670908508265</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895473</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895473</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001352</v>
+        <v>83.79828774524178</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435805</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>362.9849282099027</v>
       </c>
       <c r="L44" t="n">
-        <v>805.440802286702</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973259</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163596</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T44" t="n">
-        <v>2148.556325916849</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U44" t="n">
-        <v>1889.485634438363</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="V44" t="n">
-        <v>1526.868684372189</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="W44" t="n">
-        <v>1122.013229783223</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="X44" t="n">
-        <v>873.0088133543854</v>
+        <v>727.2532145511731</v>
       </c>
       <c r="Y44" t="n">
-        <v>873.0088133543854</v>
+        <v>318.9670908508265</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>542.5713050663909</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030332</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495865</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765402</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927018</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043085</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J45" t="n">
-        <v>175.316627066898</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>605.2485493631987</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960905</v>
+        <v>758.1833518442028</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987879</v>
+        <v>936.6510528709192</v>
       </c>
       <c r="N45" t="n">
-        <v>1061.861364220108</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034639</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P45" t="n">
-        <v>1488.088567599445</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q45" t="n">
-        <v>1614.947661807679</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R45" t="n">
-        <v>1676.651116233592</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S45" t="n">
-        <v>1632.030085633326</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T45" t="n">
-        <v>1505.938530508979</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U45" t="n">
-        <v>1329.66869333286</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V45" t="n">
-        <v>1130.551175394859</v>
+        <v>1119.947094163714</v>
       </c>
       <c r="W45" t="n">
-        <v>945.2284211280532</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X45" t="n">
-        <v>790.3609853669333</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y45" t="n">
-        <v>663.875206146154</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1029.196554659879</v>
+        <v>206.0165620652811</v>
       </c>
       <c r="C46" t="n">
-        <v>856.6348431431041</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D46" t="n">
-        <v>690.7568503446269</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E46" t="n">
-        <v>520.9988465953642</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F46" t="n">
-        <v>344.2917925571204</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G46" t="n">
-        <v>179.5506121696388</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895473</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895473</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545214</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L46" t="n">
-        <v>828.1746199579902</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M46" t="n">
-        <v>1412.355695376305</v>
+        <v>1006.944496686799</v>
       </c>
       <c r="N46" t="n">
-        <v>1539.854607180195</v>
+        <v>1097.308365280052</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527956</v>
+        <v>1180.774023741878</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q46" t="n">
-        <v>2343.856484770969</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447737</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T46" t="n">
-        <v>2360.327577447737</v>
+        <v>1480.608985215399</v>
       </c>
       <c r="U46" t="n">
-        <v>2081.940945496479</v>
+        <v>1202.208847994134</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.98543736691</v>
+        <v>915.2533398645642</v>
       </c>
       <c r="W46" t="n">
-        <v>1522.959032953201</v>
+        <v>643.2269354508558</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.567278286614</v>
+        <v>397.8351807842682</v>
       </c>
       <c r="Y46" t="n">
-        <v>1050.147607600722</v>
+        <v>397.8351807842682</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6222042310422724</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>62.31542859708469</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>282.3259660044323</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>2.907001885183223</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.923123287322518</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>2.704768336622556</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -8862,13 +8862,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>177.9839075203756</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.531018111331871</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>16.80470271645368</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.811577437946817</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.717628678278682</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>2.704768336622556</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9099,13 +9099,13 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>177.9839075203752</v>
       </c>
       <c r="P16" t="n">
-        <v>2.681898459715344</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.772242938939046</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>16.80470271645413</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>73.4368919189356</v>
       </c>
       <c r="M19" t="n">
-        <v>177.9839075203755</v>
+        <v>324.6857794047928</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>326.9089969136442</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>333.8768859352888</v>
       </c>
       <c r="P19" t="n">
-        <v>346.0449349349549</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>303.2987441336659</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.0259345636059</v>
+        <v>16.80470271645413</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>329.5063656617903</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>324.6857794047927</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>326.9089969136444</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>333.8768859352888</v>
       </c>
       <c r="P22" t="n">
-        <v>281.9767042326207</v>
+        <v>73.43689191893554</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>248.9086946183347</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>95.7326999831821</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>329.5063656617905</v>
       </c>
       <c r="M25" t="n">
-        <v>324.6857794047926</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>149.9678586329899</v>
+        <v>281.9767042326207</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>16.80470271645413</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>126.0113343546814</v>
       </c>
       <c r="L28" t="n">
-        <v>329.5063656617905</v>
+        <v>329.5063656617904</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10050,7 +10050,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9767042326204</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>16.8047027164539</v>
+        <v>161.4879868122084</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10278,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>265.438134959456</v>
+        <v>324.6857794047927</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -10287,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>346.0449349349548</v>
+        <v>199.3430630505377</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10427,10 +10427,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>17.27435144824409</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.3670431532728</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10512,22 +10512,22 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>329.5063656617903</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.61630566193763</v>
+        <v>324.6857794047928</v>
       </c>
       <c r="N34" t="n">
         <v>326.9089969136442</v>
       </c>
       <c r="O34" t="n">
-        <v>333.8768859352889</v>
+        <v>333.8768859352888</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>73.43689191893554</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>16.80470271645392</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>130.831920611679</v>
       </c>
       <c r="L37" t="n">
-        <v>329.5063656617905</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>324.6857794047927</v>
       </c>
       <c r="N37" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>77.80741219243396</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>16.8047027164539</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>149.9678586329899</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>324.6857794047926</v>
+        <v>324.6857794047928</v>
       </c>
       <c r="N40" t="n">
-        <v>326.9089969136442</v>
+        <v>326.9089969136443</v>
       </c>
       <c r="O40" t="n">
-        <v>333.8768859352889</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.43689191893532</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>16.80470271645392</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11226,16 +11226,16 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>197.1198455416858</v>
+        <v>324.6857794047927</v>
       </c>
       <c r="N43" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>199.3430630505377</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11460,10 +11460,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>141.4680432173443</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>458.158265737157</v>
+        <v>324.6857794047927</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -11472,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>199.3430630505377</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -23263,19 +23263,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>428.2881380550396</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>426.1744484710275</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>420.326206372624</v>
+        <v>24.308198860186</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3731502167427</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.1292424873029</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.5714639696243</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T11" t="n">
-        <v>217.819703146337</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6292234284552</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>397.9332469523501</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>84.52551230889576</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>41.26298946135317</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>62.71451543789636</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>128.8537753079323</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>171.3102558625354</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>193.8637938363604</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>180.2069778018777</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>150.4451083127819</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>186.637883609537</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.7978747895098</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>171.6774345756011</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9305612960722</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H13" t="n">
-        <v>138.4604679489429</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I13" t="n">
-        <v>87.62897272389382</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.5652879271376</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T13" t="n">
-        <v>243.400138899798</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6484088706061</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>266.4324872788445</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>67.26660219586745</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>418.7740258577984</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208613</v>
       </c>
       <c r="D14" t="n">
-        <v>428.677033886573</v>
+        <v>34.40045484230075</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -23509,10 +23509,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3731502167427</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.1292424873029</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.5714639696243</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.819703146337</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6292234284552</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>411.6884898642221</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>400.9407135410828</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>84.52551230889576</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>41.26298946135317</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>59.45196651563608</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>125.591226385672</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>174.5728047847957</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>193.8637938363604</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>180.5958736334111</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23655,25 +23655,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9305612960722</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4604679489429</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I16" t="n">
-        <v>87.62897272389382</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.5652879271376</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.400138899798</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6484088706061</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V16" t="n">
-        <v>280.8234041260135</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>266.0435914473111</v>
+        <v>144.2914285455051</v>
       </c>
       <c r="X16" t="n">
-        <v>239.6752881976614</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.2718208883059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>299.025243271415</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23746,7 +23746,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>265.7412325381002</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>212.0456433386444</v>
@@ -23791,7 +23791,7 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>117.5440240179902</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>169.8970337486044</v>
       </c>
     </row>
     <row r="20">
@@ -23971,19 +23971,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>277.4687868880047</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>13.36505512097517</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>11.25136553696302</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>5.403123438559589</v>
+        <v>5.403123438559476</v>
       </c>
       <c r="G20" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>272.6207125031721</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -24037,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>116.6315940205962</v>
       </c>
     </row>
     <row r="21">
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T22" t="n">
-        <v>113.3226156400019</v>
+        <v>167.8262946534713</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24208,10 +24208,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>15.57541623208618</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D23" t="n">
-        <v>152.0400509979428</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -24220,10 +24220,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>127.3793703437355</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24372,13 +24372,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>21.17316085039354</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>133.1999654356588</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>36.97140471230716</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>99.80834201126635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>11.25136553696296</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>5.403123438559533</v>
       </c>
       <c r="G26" t="n">
-        <v>396.054118850051</v>
+        <v>274.8971625375353</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.3388892342509</v>
+        <v>30.20458483185044</v>
       </c>
       <c r="H28" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>102.3175385518105</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24694,7 +24694,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H29" t="n">
         <v>272.6207125031721</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U29" t="n">
-        <v>204.4317390562172</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>8.571218451527329</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>142.4189170182231</v>
       </c>
       <c r="G31" t="n">
-        <v>97.02643976768125</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H31" t="n">
         <v>133.1999654356588</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.8105574064909</v>
+        <v>3.85094292373384</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -24928,7 +24928,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>5.403123438559476</v>
       </c>
       <c r="G32" t="n">
         <v>396.054118850051</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>85.14480155558812</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>147.2540575406698</v>
+        <v>78.02103378544143</v>
       </c>
       <c r="T34" t="n">
         <v>240.8720855447433</v>
       </c>
       <c r="U34" t="n">
-        <v>39.03715628748553</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,19 +25156,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>15.57541623208607</v>
+        <v>15.57541623208613</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>13.36505512097511</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>15.74060593631179</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>278.2935249578014</v>
       </c>
       <c r="H35" t="n">
         <v>272.6207125031721</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.5237009191198</v>
@@ -25216,13 +25216,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25323,7 +25323,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.3388892342509</v>
@@ -25365,10 +25365,10 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T37" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>39.03715628748508</v>
+        <v>104.9692583343672</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>3.850942923733783</v>
       </c>
       <c r="C38" t="n">
-        <v>15.57541623208618</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>13.365055120975</v>
       </c>
       <c r="E38" t="n">
-        <v>11.25136553696302</v>
+        <v>11.25136553696285</v>
       </c>
       <c r="F38" t="n">
-        <v>33.11933774956003</v>
+        <v>107.7648874569718</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H38" t="n">
         <v>272.6207125031721</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>212.0456433386444</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>160.5695002869829</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H40" t="n">
         <v>133.1999654356588</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.8720855447433</v>
+        <v>27.07784189600389</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>66.86423147304873</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -25642,7 +25642,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H41" t="n">
         <v>272.6207125031721</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T41" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>65.63574544264139</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.3388892342509</v>
@@ -25839,13 +25839,13 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T43" t="n">
-        <v>59.10367104828026</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>104.969258334367</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -25879,10 +25879,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>113.3970009507537</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>168.4366665219336</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>169.1588901203628</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>197.9139362976115</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2675.57353197429</v>
+        <v>337569.5911091813</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2675.573531974301</v>
+        <v>337569.5911091812</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>337569.5911091812</v>
+        <v>337569.5911091814</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>337569.5911091812</v>
+        <v>337569.5911091813</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>337569.5911091814</v>
+        <v>337569.5911091812</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>337569.5911091812</v>
+        <v>337569.5911091813</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>428425.6440124149</v>
+        <v>337569.5911091813</v>
       </c>
     </row>
   </sheetData>
@@ -26322,10 +26322,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>822.1910714694034</v>
+        <v>103464.9542517201</v>
       </c>
       <c r="F2" t="n">
-        <v>822.1910714694034</v>
+        <v>103464.9542517201</v>
       </c>
       <c r="G2" t="n">
         <v>103464.9542517201</v>
@@ -26355,7 +26355,7 @@
         <v>103464.9542517201</v>
       </c>
       <c r="P2" t="n">
-        <v>133702.9356056947</v>
+        <v>103464.9542517201</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3113.051650297576</v>
+        <v>390603.7529837591</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>368824.7160594863</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>813.0402416229782</v>
+        <v>104213.5322011236</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>99851.65483116558</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>131103.9139949619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,22 +26426,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>115.1010804579414</v>
+        <v>15365.01109927398</v>
       </c>
       <c r="F4" t="n">
-        <v>115.1010804579415</v>
+        <v>15365.01109927397</v>
       </c>
       <c r="G4" t="n">
+        <v>15365.01109927397</v>
+      </c>
+      <c r="H4" t="n">
         <v>15365.01109927398</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15365.01109927397</v>
       </c>
       <c r="I4" t="n">
         <v>15365.01109927397</v>
       </c>
       <c r="J4" t="n">
-        <v>15365.01109927397</v>
+        <v>15365.01109927396</v>
       </c>
       <c r="K4" t="n">
         <v>15365.01109927397</v>
@@ -26450,16 +26450,16 @@
         <v>15365.01109927396</v>
       </c>
       <c r="M4" t="n">
-        <v>15365.01109927397</v>
+        <v>15365.01109927396</v>
       </c>
       <c r="N4" t="n">
-        <v>15365.01109927397</v>
+        <v>15365.01109927396</v>
       </c>
       <c r="O4" t="n">
-        <v>15365.01109927397</v>
+        <v>15365.01109927396</v>
       </c>
       <c r="P4" t="n">
-        <v>12054.8494407426</v>
+        <v>15365.01109927396</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>256.4018338459632</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="F5" t="n">
-        <v>256.4018338459632</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="G5" t="n">
         <v>32636.50261996421</v>
       </c>
       <c r="H5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="I5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="J5" t="n">
         <v>32636.50261996421</v>
       </c>
       <c r="K5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="L5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="M5" t="n">
         <v>32636.50261996421</v>
       </c>
       <c r="N5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="O5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>32636.50261996421</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-2662.363493132078</v>
+        <v>-335872.0633730519</v>
       </c>
       <c r="F6" t="n">
-        <v>450.6881571654987</v>
+        <v>54731.68961070717</v>
       </c>
       <c r="G6" t="n">
-        <v>-313361.2755270043</v>
+        <v>54731.68961070722</v>
       </c>
       <c r="H6" t="n">
-        <v>55463.44053248192</v>
+        <v>54731.6896107072</v>
       </c>
       <c r="I6" t="n">
-        <v>55463.44053248194</v>
+        <v>54731.68961070719</v>
       </c>
       <c r="J6" t="n">
-        <v>55463.44053248192</v>
+        <v>54731.68961070722</v>
       </c>
       <c r="K6" t="n">
-        <v>55463.44053248195</v>
+        <v>54731.68961070723</v>
       </c>
       <c r="L6" t="n">
-        <v>55463.44053248194</v>
+        <v>54731.68961070719</v>
       </c>
       <c r="M6" t="n">
-        <v>54650.40029085897</v>
+        <v>-49481.84259041635</v>
       </c>
       <c r="N6" t="n">
-        <v>55463.44053248194</v>
+        <v>54731.68961070721</v>
       </c>
       <c r="O6" t="n">
-        <v>-44388.21429868361</v>
+        <v>54731.68961070722</v>
       </c>
       <c r="P6" t="n">
-        <v>-55506.90903964751</v>
+        <v>54731.68961070722</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.662332998740292</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="F3" t="n">
-        <v>2.662332998740292</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="G3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="H3" t="n">
         <v>330.7713854632871</v>
@@ -26761,25 +26761,25 @@
         <v>330.7713854632871</v>
       </c>
       <c r="J3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="K3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="L3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="M3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="N3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="O3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932211</v>
+        <v>330.7713854632872</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.262548922260276</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="F4" t="n">
-        <v>3.262548922260276</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="G4" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="H4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="I4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="J4" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="K4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="L4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M4" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="N4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="O4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619341</v>
+        <v>418.1856318563248</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.662332998740292</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>328.1090524645468</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>135.930542629934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.262548922260276</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>414.9230829340646</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,16 +27044,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.26254892226039</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>414.9230829340646</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>171.8962625056094</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.262548922260276</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>414.9230829340646</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01070284622609162</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1096105239129608</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9083906948817444</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K11" t="n">
-        <v>1.361442175632203</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L11" t="n">
-        <v>1.688989405823955</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M11" t="n">
-        <v>1.879326147397211</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N11" t="n">
-        <v>1.909735609237095</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O11" t="n">
-        <v>1.803309182076396</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P11" t="n">
-        <v>1.539082665869759</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.155786985397852</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6723126642497282</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S11" t="n">
-        <v>0.243891108377063</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T11" t="n">
-        <v>0.04685170935471609</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0008562276980873294</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.005726527582196101</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05530620059647288</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I12" t="n">
-        <v>0.19716334000105</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5410312747723081</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9247086227794468</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L12" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M12" t="n">
-        <v>1.450971484313459</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N12" t="n">
-        <v>1.489374382002836</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O12" t="n">
-        <v>1.362486586628912</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P12" t="n">
-        <v>1.093515604709008</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7309862225975234</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3555470370770528</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S12" t="n">
-        <v>0.106367738204388</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T12" t="n">
-        <v>0.02308192477209743</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004800928358384133</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04268461758636078</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1443770091775883</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3394256349377582</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K13" t="n">
-        <v>0.55778058563772</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7137671124819467</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7525673425783418</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N13" t="n">
-        <v>0.734672973242547</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6785894010559684</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5806504625449317</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4020122828097841</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2158671969142538</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S13" t="n">
-        <v>0.083667087845658</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T13" t="n">
-        <v>0.02051305753127766</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0002618688195482257</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01070284622609162</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1096105239129608</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313975</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9083906948817443</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K14" t="n">
-        <v>1.361442175632203</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L14" t="n">
-        <v>1.688989405823955</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M14" t="n">
-        <v>1.879326147397211</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N14" t="n">
-        <v>1.909735609237094</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O14" t="n">
-        <v>1.803309182076396</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P14" t="n">
-        <v>1.539082665869759</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.155786985397852</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R14" t="n">
-        <v>0.6723126642497281</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S14" t="n">
-        <v>0.243891108377063</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T14" t="n">
-        <v>0.04685170935471608</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0008562276980873292</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0057265275821961</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05530620059647287</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I15" t="n">
-        <v>0.19716334000105</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5410312747723079</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9247086227794465</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L15" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M15" t="n">
-        <v>1.450971484313459</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N15" t="n">
-        <v>1.489374382002836</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O15" t="n">
-        <v>1.362486586628912</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P15" t="n">
-        <v>1.093515604709008</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7309862225975232</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3555470370770527</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S15" t="n">
-        <v>0.106367738204388</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T15" t="n">
-        <v>0.02308192477209743</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004800928358384133</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04268461758636077</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1443770091775883</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3394256349377581</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K16" t="n">
-        <v>0.55778058563772</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7137671124819465</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7525673425783417</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7346729732425469</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6785894010559683</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5806504625449316</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4020122828097841</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2158671969142538</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S16" t="n">
-        <v>0.08366708784565799</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02051305753127765</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0002618688195482257</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I17" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J17" t="n">
         <v>112.8595291536268</v>
@@ -32241,13 +32241,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L17" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M17" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N17" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O17" t="n">
         <v>224.0452553667434</v>
@@ -32259,13 +32259,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R17" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S17" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T17" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U17" t="n">
         <v>0.1063787370334189</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H18" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I18" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J18" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K18" t="n">
         <v>114.8868877226589</v>
@@ -32335,10 +32335,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R18" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S18" t="n">
         <v>13.21525299468887</v>
@@ -32347,7 +32347,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H19" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I19" t="n">
         <v>17.9375695592222</v>
@@ -32396,25 +32396,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K19" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L19" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M19" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N19" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O19" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P19" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R19" t="n">
         <v>26.81959463117078</v>
@@ -32426,7 +32426,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I26" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J26" t="n">
         <v>112.8595291536268</v>
@@ -32952,13 +32952,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L26" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M26" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N26" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O26" t="n">
         <v>224.0452553667434</v>
@@ -32970,13 +32970,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R26" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T26" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U26" t="n">
         <v>0.1063787370334189</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H27" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I27" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J27" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K27" t="n">
         <v>114.8868877226589</v>
@@ -33046,10 +33046,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R27" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S27" t="n">
         <v>13.21525299468887</v>
@@ -33058,7 +33058,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H28" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I28" t="n">
         <v>17.9375695592222</v>
@@ -33107,25 +33107,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K28" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L28" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M28" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N28" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O28" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P28" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R28" t="n">
         <v>26.81959463117078</v>
@@ -33137,7 +33137,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I29" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J29" t="n">
         <v>112.8595291536268</v>
@@ -33189,13 +33189,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L29" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M29" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N29" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O29" t="n">
         <v>224.0452553667434</v>
@@ -33207,13 +33207,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R29" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T29" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U29" t="n">
         <v>0.1063787370334189</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H30" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I30" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J30" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K30" t="n">
         <v>114.8868877226589</v>
@@ -33283,10 +33283,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R30" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S30" t="n">
         <v>13.21525299468887</v>
@@ -33295,7 +33295,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H31" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I31" t="n">
         <v>17.9375695592222</v>
@@ -33344,25 +33344,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K31" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L31" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M31" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N31" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O31" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P31" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R31" t="n">
         <v>26.81959463117078</v>
@@ -33374,7 +33374,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I32" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J32" t="n">
         <v>112.8595291536268</v>
@@ -33426,13 +33426,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L32" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M32" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N32" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O32" t="n">
         <v>224.0452553667434</v>
@@ -33444,13 +33444,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R32" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S32" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T32" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U32" t="n">
         <v>0.1063787370334189</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H33" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I33" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J33" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K33" t="n">
         <v>114.8868877226589</v>
@@ -33520,10 +33520,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R33" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S33" t="n">
         <v>13.21525299468887</v>
@@ -33532,7 +33532,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H34" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I34" t="n">
         <v>17.9375695592222</v>
@@ -33581,25 +33581,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K34" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L34" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M34" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N34" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O34" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P34" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R34" t="n">
         <v>26.81959463117078</v>
@@ -33611,7 +33611,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I35" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J35" t="n">
         <v>112.8595291536268</v>
@@ -33663,13 +33663,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L35" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M35" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N35" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O35" t="n">
         <v>224.0452553667434</v>
@@ -33681,13 +33681,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R35" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S35" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T35" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U35" t="n">
         <v>0.1063787370334189</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H36" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I36" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J36" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K36" t="n">
         <v>114.8868877226589</v>
@@ -33757,10 +33757,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R36" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S36" t="n">
         <v>13.21525299468887</v>
@@ -33769,7 +33769,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H37" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I37" t="n">
         <v>17.9375695592222</v>
@@ -33818,25 +33818,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K37" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L37" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M37" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N37" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O37" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P37" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R37" t="n">
         <v>26.81959463117078</v>
@@ -33848,7 +33848,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I38" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J38" t="n">
         <v>112.8595291536268</v>
@@ -33900,13 +33900,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L38" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M38" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N38" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O38" t="n">
         <v>224.0452553667434</v>
@@ -33918,13 +33918,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R38" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S38" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T38" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U38" t="n">
         <v>0.1063787370334189</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H39" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I39" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J39" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K39" t="n">
         <v>114.8868877226589</v>
@@ -33994,10 +33994,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R39" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S39" t="n">
         <v>13.21525299468887</v>
@@ -34006,7 +34006,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H40" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I40" t="n">
         <v>17.9375695592222</v>
@@ -34055,25 +34055,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K40" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L40" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M40" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N40" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O40" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P40" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R40" t="n">
         <v>26.81959463117078</v>
@@ -34085,7 +34085,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I41" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J41" t="n">
         <v>112.8595291536268</v>
@@ -34137,13 +34137,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L41" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M41" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N41" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O41" t="n">
         <v>224.0452553667434</v>
@@ -34155,13 +34155,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R41" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S41" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T41" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U41" t="n">
         <v>0.1063787370334189</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H42" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I42" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J42" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K42" t="n">
         <v>114.8868877226589</v>
@@ -34231,10 +34231,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R42" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S42" t="n">
         <v>13.21525299468887</v>
@@ -34243,7 +34243,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H43" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I43" t="n">
         <v>17.9375695592222</v>
@@ -34292,25 +34292,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K43" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L43" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M43" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N43" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O43" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P43" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R43" t="n">
         <v>26.81959463117078</v>
@@ -34322,7 +34322,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651139</v>
+        <v>1.329734212917736</v>
       </c>
       <c r="H44" t="n">
-        <v>19.21451706968723</v>
+        <v>13.61814050804377</v>
       </c>
       <c r="I44" t="n">
-        <v>72.3317631469906</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>224.0452553667434</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>143.5963354852203</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065037</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.1063787370334189</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.003849430238249</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>135.8596658518924</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233623</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183764</v>
+        <v>13.21525299468887</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051976</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495698</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998885</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O46" t="n">
-        <v>118.9554357048099</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207639</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195198</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>10.39489747431346</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9083906948817442</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K11" t="n">
-        <v>1.361442175632203</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L11" t="n">
-        <v>1.688989405823955</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M11" t="n">
-        <v>1.879326147397211</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N11" t="n">
-        <v>1.909735609237097</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O11" t="n">
-        <v>1.803309182076395</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P11" t="n">
-        <v>1.539082665869758</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.155786985397853</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R11" t="n">
-        <v>0.672312664249727</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8193675710433224</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5410312747723081</v>
+        <v>129.533790995808</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9247086227794468</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L12" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M12" t="n">
-        <v>1.450971484313459</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N12" t="n">
-        <v>1.489374382002836</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O12" t="n">
-        <v>1.362486586628911</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P12" t="n">
-        <v>1.093515604709008</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7309862225975241</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R12" t="n">
-        <v>3.262548922260276</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3.262548922260276</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K13" t="n">
-        <v>3.262548922260276</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7137671124819462</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7525673425783417</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7346729732425477</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6785894010559677</v>
+        <v>262.2926534414115</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5806504625449325</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.933030394141655</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9083906948817442</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K14" t="n">
-        <v>1.361442175632203</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L14" t="n">
-        <v>1.688989405823957</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M14" t="n">
-        <v>1.879326147397212</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N14" t="n">
-        <v>1.909735609237094</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O14" t="n">
-        <v>1.803309182076395</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P14" t="n">
-        <v>1.539082665869758</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.155786985397853</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R14" t="n">
-        <v>0.672312664249727</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.19716334000105</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5410312747723078</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9247086227794465</v>
+        <v>131.6915904391126</v>
       </c>
       <c r="L15" t="n">
-        <v>1.243384859458851</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M15" t="n">
-        <v>3.262548922260276</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N15" t="n">
-        <v>1.489374382002835</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O15" t="n">
-        <v>1.362486586628911</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P15" t="n">
-        <v>2.811144282987691</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7309862225975223</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3555470370770522</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3394256349377581</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K16" t="n">
-        <v>3.262548922260276</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7137671124819462</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7525673425783417</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7346729732425468</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6785894010559685</v>
+        <v>262.2926534414111</v>
       </c>
       <c r="P16" t="n">
-        <v>3.262548922260276</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.17425522174883</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J17" t="n">
         <v>112.8595291536268</v>
@@ -35889,25 +35889,25 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L17" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M17" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N17" t="n">
         <v>237.2677999464441</v>
       </c>
       <c r="O17" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P17" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q17" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R17" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35977,13 +35977,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O18" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P18" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q18" t="n">
-        <v>107.6232914195061</v>
+        <v>107.6232914195059</v>
       </c>
       <c r="R18" t="n">
         <v>162.5299238926254</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K19" t="n">
-        <v>346.8331089915197</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L19" t="n">
-        <v>88.67926619453442</v>
+        <v>162.11615811347</v>
       </c>
       <c r="M19" t="n">
-        <v>271.4837599719076</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N19" t="n">
-        <v>91.27663494268052</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="O19" t="n">
-        <v>84.30874592103589</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P19" t="n">
-        <v>418.1856318563248</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q19" t="n">
-        <v>219.8381709871103</v>
+        <v>49.9464792049564</v>
       </c>
       <c r="R19" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>50.85195676437968</v>
       </c>
       <c r="J20" t="n">
-        <v>112.8595291536269</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K20" t="n">
         <v>169.1471783864346</v>
       </c>
       <c r="L20" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M20" t="n">
         <v>233.4896926139916</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>24.49580543289438</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J21" t="n">
-        <v>67.21836239872329</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K21" t="n">
-        <v>418.1856318563248</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L21" t="n">
         <v>154.4795984656607</v>
@@ -36220,10 +36220,10 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q21" t="n">
-        <v>276.8445232666579</v>
+        <v>107.6232914195061</v>
       </c>
       <c r="R21" t="n">
-        <v>44.17358238319139</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K22" t="n">
-        <v>346.8331089915197</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L22" t="n">
-        <v>418.1856318563247</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M22" t="n">
-        <v>93.49985245153209</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27663494268052</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="O22" t="n">
-        <v>84.30874592103578</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P22" t="n">
-        <v>354.1174011539906</v>
+        <v>145.5775888403055</v>
       </c>
       <c r="Q22" t="n">
-        <v>219.8381709871101</v>
+        <v>49.9464792049564</v>
       </c>
       <c r="R22" t="n">
         <v>5.615951549488944</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>50.8227480192152</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J24" t="n">
-        <v>67.21836239872329</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K24" t="n">
         <v>114.8868877226589</v>
@@ -36451,13 +36451,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O24" t="n">
-        <v>418.1856318563247</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P24" t="n">
-        <v>231.5923658350746</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.818588703052</v>
+        <v>107.6232914195059</v>
       </c>
       <c r="R24" t="n">
         <v>162.5299238926254</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K25" t="n">
-        <v>69.29931649542308</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L25" t="n">
-        <v>88.67926619453439</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="M25" t="n">
-        <v>418.1856318563247</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N25" t="n">
-        <v>418.1856318563247</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O25" t="n">
-        <v>84.30874592103578</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P25" t="n">
-        <v>222.1085555543598</v>
+        <v>354.1174011539906</v>
       </c>
       <c r="Q25" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R25" t="n">
         <v>5.615951549488944</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J26" t="n">
         <v>112.8595291536269</v>
       </c>
       <c r="K26" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864345</v>
       </c>
       <c r="L26" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M26" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N26" t="n">
-        <v>237.2677999464443</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O26" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P26" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q26" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R26" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>50.82274801921519</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J27" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K27" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391124</v>
       </c>
       <c r="L27" t="n">
         <v>154.4795984656607</v>
@@ -36688,16 +36688,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O27" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P27" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q27" t="n">
-        <v>107.6232914195061</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R27" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K28" t="n">
-        <v>346.8331089915197</v>
+        <v>195.3106508501045</v>
       </c>
       <c r="L28" t="n">
-        <v>418.1856318563249</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M28" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N28" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O28" t="n">
-        <v>84.30874592103601</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P28" t="n">
-        <v>354.1174011539904</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q28" t="n">
         <v>219.8381709871103</v>
       </c>
       <c r="R28" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J29" t="n">
         <v>112.8595291536268</v>
@@ -36837,10 +36837,10 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L29" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M29" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N29" t="n">
         <v>237.2677999464441</v>
@@ -36852,7 +36852,7 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q29" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R29" t="n">
         <v>83.52891675219394</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>50.82274801921518</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J30" t="n">
         <v>395.0550542837863</v>
@@ -36916,7 +36916,7 @@
         <v>114.8868877226589</v>
       </c>
       <c r="L30" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656608</v>
       </c>
       <c r="M30" t="n">
         <v>180.2704050774914</v>
@@ -36925,16 +36925,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O30" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P30" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q30" t="n">
-        <v>107.6232914195059</v>
+        <v>252.3065755152604</v>
       </c>
       <c r="R30" t="n">
-        <v>162.5299238926254</v>
+        <v>44.17358238319139</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K31" t="n">
         <v>346.8331089915197</v>
@@ -36998,22 +36998,22 @@
         <v>88.67926619453442</v>
       </c>
       <c r="M31" t="n">
-        <v>358.9379874109881</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N31" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O31" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P31" t="n">
-        <v>418.1856318563248</v>
+        <v>271.4837599719076</v>
       </c>
       <c r="Q31" t="n">
         <v>219.8381709871101</v>
       </c>
       <c r="R31" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J32" t="n">
         <v>112.8595291536268</v>
@@ -37074,10 +37074,10 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L32" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M32" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N32" t="n">
         <v>237.2677999464441</v>
@@ -37089,7 +37089,7 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q32" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R32" t="n">
         <v>83.52891675219394</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>50.8227480192152</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J33" t="n">
-        <v>67.21836239872329</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K33" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391124</v>
       </c>
       <c r="L33" t="n">
         <v>154.4795984656607</v>
@@ -37162,16 +37162,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O33" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P33" t="n">
-        <v>153.1340173001365</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q33" t="n">
-        <v>418.1856318563248</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R33" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,13 +37229,13 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K34" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L34" t="n">
-        <v>418.1856318563247</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M34" t="n">
-        <v>162.1161581134697</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="N34" t="n">
         <v>418.1856318563248</v>
@@ -37247,10 +37247,10 @@
         <v>72.14069692136991</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.9464792049564</v>
+        <v>123.3833711238919</v>
       </c>
       <c r="R34" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,10 +37302,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J35" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K35" t="n">
         <v>169.1471783864346</v>
@@ -37314,7 +37314,7 @@
         <v>209.8420318050158</v>
       </c>
       <c r="M35" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N35" t="n">
         <v>237.2677999464441</v>
@@ -37329,7 +37329,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R35" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>50.82274801921519</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J36" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K36" t="n">
-        <v>131.6915904391128</v>
+        <v>131.6915904391124</v>
       </c>
       <c r="L36" t="n">
         <v>154.4795984656607</v>
@@ -37399,7 +37399,7 @@
         <v>185.041626288561</v>
       </c>
       <c r="O36" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P36" t="n">
         <v>135.8596658518925</v>
@@ -37408,7 +37408,7 @@
         <v>90.818588703052</v>
       </c>
       <c r="R36" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K37" t="n">
-        <v>69.29931649542308</v>
+        <v>200.1312371071022</v>
       </c>
       <c r="L37" t="n">
-        <v>418.1856318563249</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M37" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="N37" t="n">
+        <v>91.27663494268063</v>
+      </c>
+      <c r="O37" t="n">
+        <v>84.30874592103589</v>
+      </c>
+      <c r="P37" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="O37" t="n">
-        <v>162.11615811347</v>
-      </c>
-      <c r="P37" t="n">
-        <v>72.14069692136991</v>
-      </c>
       <c r="Q37" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R37" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,10 +37539,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J38" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K38" t="n">
         <v>169.1471783864346</v>
@@ -37551,22 +37551,22 @@
         <v>209.8420318050158</v>
       </c>
       <c r="M38" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N38" t="n">
-        <v>237.2677999464444</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O38" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P38" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q38" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R38" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>395.0550542837863</v>
       </c>
       <c r="K39" t="n">
-        <v>131.6915904391128</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L39" t="n">
         <v>154.4795984656607</v>
@@ -37636,16 +37636,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O39" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P39" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.818588703052</v>
+        <v>107.6232914195054</v>
       </c>
       <c r="R39" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K40" t="n">
-        <v>69.2993164954231</v>
+        <v>219.267175128413</v>
       </c>
       <c r="L40" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M40" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="N40" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="O40" t="n">
-        <v>418.1856318563248</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P40" t="n">
         <v>72.14069692136991</v>
       </c>
       <c r="Q40" t="n">
-        <v>123.3833711238917</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R40" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,22 +37776,22 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J41" t="n">
         <v>112.8595291536268</v>
       </c>
       <c r="K41" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864345</v>
       </c>
       <c r="L41" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050161</v>
       </c>
       <c r="M41" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N41" t="n">
-        <v>237.2677999464443</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O41" t="n">
         <v>224.0452553667433</v>
@@ -37800,10 +37800,10 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q41" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R41" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219416</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>50.8227480192152</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J42" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K42" t="n">
-        <v>131.6915904391128</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L42" t="n">
         <v>154.4795984656607</v>
@@ -37873,16 +37873,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O42" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P42" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.818588703052</v>
+        <v>107.6232914195054</v>
       </c>
       <c r="R42" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37946,22 +37946,22 @@
         <v>88.67926619453442</v>
       </c>
       <c r="M43" t="n">
-        <v>290.6196979932179</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N43" t="n">
-        <v>418.1856318563248</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O43" t="n">
         <v>84.30874592103601</v>
       </c>
       <c r="P43" t="n">
-        <v>72.14069692136991</v>
+        <v>271.4837599719076</v>
       </c>
       <c r="Q43" t="n">
         <v>219.8381709871101</v>
       </c>
       <c r="R43" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785919</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>131.6915904391124</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453262</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572664</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L46" t="n">
-        <v>266.5900650540088</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619341</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O46" t="n">
-        <v>118.9554357048098</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485103</v>
+        <v>271.4837599719076</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027015</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
